--- a/tests/data/input/一级报告详情测试用例-10001.xlsx
+++ b/tests/data/input/一级报告详情测试用例-10001.xlsx
@@ -98,11 +98,11 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>ovdu_overdue_time_amt=['最近12个月:2W～10W','最近3个月:0.1W～0.5W']</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ovdu_overdue_time_amt=['最近12个月:2W～10W','最近6个月:0.1W～0.5W','最近3个月:2W～10W']</t>
+    <t>ovdu_overdue_time_amt=['最近12个月:2W～10W', '最近3个月:0.1W～0.5W']</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ovdu_overdue_time_amt=['最近12个月:2W～10W', '最近6个月:0.1W～0.5W', '最近3个月:2W～10W']</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -541,7 +541,7 @@
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
